--- a/myExcel.xlsx
+++ b/myExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tata</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>speed</t>
+  </si>
+  <si>
+    <t>kool</t>
+  </si>
+  <si>
+    <t>cool</t>
   </si>
 </sst>
 </file>
@@ -357,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>110100</v>
       </c>
@@ -396,9 +402,19 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
